--- a/script/checklist_base.xlsx
+++ b/script/checklist_base.xlsx
@@ -159,19 +159,7 @@
     <t>What user data you can find in app?</t>
   </si>
   <si>
-    <t>- first name
-- last name
-- phone number
-- blood type
-- list of diseases</t>
-  </si>
-  <si>
     <t>What data you save/persist between sessions?</t>
-  </si>
-  <si>
-    <t>- first name
-- last name
-- phone number</t>
   </si>
   <si>
     <t>What data do you send to backend?</t>
@@ -200,6 +188,18 @@
   </si>
   <si>
     <t>https://github.com/OWASP/owasp-masvs/blob/master/Document/0x03-Using_the_MASVS.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - first name
+  - last name
+  - phone number
+  - blood type
+  - list of diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - first name
+  - last name
+  - phone number</t>
   </si>
 </sst>
 </file>
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -291,6 +291,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,7 +540,7 @@
     </row>
     <row r="3" spans="1:2" ht="99.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="8"/>
     </row>
@@ -566,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75">
@@ -613,7 +616,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -662,8 +665,8 @@
         <v>14</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -691,11 +694,11 @@
     </row>
     <row r="3" spans="1:26" ht="99" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -723,11 +726,11 @@
     </row>
     <row r="4" spans="1:26" ht="102" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
